--- a/public/academics_excel/ug_semester3.xlsx
+++ b/public/academics_excel/ug_semester3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_page\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s417\dept_website\public\academics_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F14CFE-C99B-477E-AF85-2FE484A4631D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA1195E-04F4-4DFE-AC71-CF454736522D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD133807-0E38-4C6E-A195-F1702B74023A}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{FD133807-0E38-4C6E-A195-F1702B74023A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Course No</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>R and Python for Biologists</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -469,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44730862-6ECD-4B37-B45C-C429648908B3}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,26 +569,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFF3D5147560D847982CCE8C3633A37D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1c2c3ee93b3aa87c8f19f45b8dd5823">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a3560e39-0a11-4efc-9624-a91941d62270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="386ddfe83da0ac4b0d15e1e2d0043f2a" ns3:_="">
     <xsd:import namespace="a3560e39-0a11-4efc-9624-a91941d62270"/>
@@ -738,22 +733,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594A8C8C-FB7C-4D34-A081-D4DD80EDFCEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a3560e39-0a11-4efc-9624-a91941d62270"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E483-8391-457D-9A90-9F3E8F0FAA06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D06D23C6-504D-40A9-BF7E-BC138E2DD63F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -769,28 +773,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF24E483-8391-457D-9A90-9F3E8F0FAA06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594A8C8C-FB7C-4D34-A081-D4DD80EDFCEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a3560e39-0a11-4efc-9624-a91941d62270"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>